--- a/Upload Data/Listening Exercise/Part 2/Test 4/Test4.xlsx
+++ b/Upload Data/Listening Exercise/Part 2/Test 4/Test4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\PBL5-LPToeic\Upload Data\Listening Exercise\Part 2\Test 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\PBL5-LPToeic\Upload Data\Listening Exercise\Part 2\Test 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E50ED76-66CC-480F-87A4-E1BB5DFD2F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFC9816-721F-4BDA-A00E-DC595AFAD763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C29EC6F-1CD6-4F4D-9FEE-11A1FE1D594D}"/>
   </bookViews>
@@ -71,83 +71,86 @@
     <t>C</t>
   </si>
   <si>
+    <t>cau2.mp3</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>cau3.mp3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>cau4.mp3</t>
+  </si>
+  <si>
+    <t>cau5.mp3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transcript:
-Where was the company picnic held?
-(A) In April.
-(B) Refreshments will be provided.
-(C) At a park next to a lake.
+Which seat is mine?
+(A) It’s a comfortable chair.
+(B) Please sit anywhere.
+(C) Keep that in mind.
 Bản dịch: 
-Chuyến dã ngoại của công ty được tổ chức ở đâu?
-(A) Vào tháng Tư.
-(B) Đồ giải khát sẽ được cung cấp.
-(C) Tại một công viên cạnh hồ.
+Chỗ ngồi nào là của tôi?
+(A) Đó là một chiếc ghế thoải mái.
+(B) Hãy ngồi ở bất cứ đâu.
+(C) Hãy ghi nhớ điều đó.
 </t>
   </si>
   <si>
-    <t>cau2.mp3</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Transcript:
-Who’s working at the front desk today?
-(A) That’s a difficult request.
-(B) It’s Katie Miller.
-(C) Make room on your desk.
+I couldn’t get a hold of George.
+(A) Hold the line, please.
+(B) Some empty boxes.
+(C) Try calling back later.
+Bản dịch: 
+Tôi không thể liên lạc được với George.
+(A) Làm ơn giữ máy.
+(B) Một số hộp trống.
+(C) Hãy thử gọi lại sau.</t>
+  </si>
+  <si>
+    <t>Transcript:
+Shouldn’t our food have been served by now?
+(A) It was delicious.
+(B) Yes, the service is rather slow tonight.
+(C) I’ll order the tomato pasta.
 Bản dịch:
-Hôm nay ai làm việc ở quầy lễ tân?
-(A) Đó là một yêu cầu khó khăn.
-(B) Đó là Katie Miller.
-(C) Hãy dọn chỗ trên bàn làm việc của bạn.</t>
-  </si>
-  <si>
-    <t>cau3.mp3</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Transcript:
-Would you like to work together or separately?
-(A) Actually, I prefer working alone.
-(B) Let’s gather the company’s data.
-(C) Before next Friday.
+Lẽ ra bây giờ đồ ăn của chúng ta đã được phục vụ rồi sao?
+(A) Nó rất ngon.
+(B) Vâng, dịch vụ tối nay khá chậm.
+(C) Tôi sẽ gọi mì cà chua.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcript:
+Why don’t we take a group picture?
+(A) Sure, let’s do it on the steps.
+(B) A digital camera.
+(C) Yes, she looks attractive in this picture.
 Bản dịch: 
-Bạn muốn làm việc cùng nhau hay riêng biệt?
-(A) Thực ra, tôi thích làm việc một mình hơn.
-(B) Hãy thu thập dữ liệu của công ty.
-(C) Trước hôm thứ Sáu tới.</t>
-  </si>
-  <si>
-    <t>cau4.mp3</t>
-  </si>
-  <si>
-    <t>Transcript:
-Have you introduced yourself to the new employee?
-(A) A new reward system will be introduced soon.
-(B) No, I’ve been too busy today.
-(C) Nice to meet you.
+Tại sao chúng ta không chụp ảnh nhóm?
+(A) Chắc chắn rồi, hãy thực hiện theo các bước.
+(B) Một máy ảnh kỹ thuật số.
+(C) Vâng, cô ấy trông thật hấp dẫn trong bức ảnh này.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Transcript:
+This new coffee maker was very expensive.
+(A) He has extensive management experience.
+(B) There’s a paper jam in the copy machine.
+(C) That’s why the coffee tastes great.
 Bản dịch:
-Bạn đã giới thiệu bản thân với nhân viên mới chưa?
-(A) Một hệ thống khen thưởng mới sẽ sớm được giới thiệu.
-(B) Không, hôm nay tôi quá bận.
-(C) Rất vui được gặp bạn.</t>
-  </si>
-  <si>
-    <t>cau5.mp3</t>
-  </si>
-  <si>
-    <t>Transcript:
-Where does this bus go to?
-(A) You need a transit card.
-(B) The bus stop is over there.
-(C) It is headed downtown.
-Bản dịch:
-Xe buýt này đi đến đâu?
-(A) Bạn cần thẻ chuyển tuyến.
-(B) Trạm xe buýt ở đằng kia.
-(C) Nó hướng về trung tâm thành phố.</t>
+Máy pha cà phê mới này rất đắt tiền.
+(A) Anh ấy có nhiều kinh nghiệm quản lý.
+(B) Có kẹt giấy trong máy photocopy.
+(C) Đó là lý do tại sao cà phê có hương vị tuyệt vời.
+</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +583,7 @@
     <col min="6" max="6" width="58.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -614,15 +617,15 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -634,15 +637,15 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -654,15 +657,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -674,15 +677,15 @@
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>

--- a/Upload Data/Listening Exercise/Part 2/Test 4/Test4.xlsx
+++ b/Upload Data/Listening Exercise/Part 2/Test 4/Test4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\PBL5-LPToeic\Upload Data\Listening Exercise\Part 2\Test 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\PBL5-LPToeic\Upload Data\Listening Exercise\Part 2\Test 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFC9816-721F-4BDA-A00E-DC595AFAD763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E50ED76-66CC-480F-87A4-E1BB5DFD2F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C29EC6F-1CD6-4F4D-9FEE-11A1FE1D594D}"/>
   </bookViews>
@@ -71,86 +71,83 @@
     <t>C</t>
   </si>
   <si>
+    <t xml:space="preserve">Transcript:
+Where was the company picnic held?
+(A) In April.
+(B) Refreshments will be provided.
+(C) At a park next to a lake.
+Bản dịch: 
+Chuyến dã ngoại của công ty được tổ chức ở đâu?
+(A) Vào tháng Tư.
+(B) Đồ giải khát sẽ được cung cấp.
+(C) Tại một công viên cạnh hồ.
+</t>
+  </si>
+  <si>
     <t>cau2.mp3</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>Transcript:
+Who’s working at the front desk today?
+(A) That’s a difficult request.
+(B) It’s Katie Miller.
+(C) Make room on your desk.
+Bản dịch:
+Hôm nay ai làm việc ở quầy lễ tân?
+(A) Đó là một yêu cầu khó khăn.
+(B) Đó là Katie Miller.
+(C) Hãy dọn chỗ trên bàn làm việc của bạn.</t>
+  </si>
+  <si>
     <t>cau3.mp3</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
+    <t>Transcript:
+Would you like to work together or separately?
+(A) Actually, I prefer working alone.
+(B) Let’s gather the company’s data.
+(C) Before next Friday.
+Bản dịch: 
+Bạn muốn làm việc cùng nhau hay riêng biệt?
+(A) Thực ra, tôi thích làm việc một mình hơn.
+(B) Hãy thu thập dữ liệu của công ty.
+(C) Trước hôm thứ Sáu tới.</t>
+  </si>
+  <si>
     <t>cau4.mp3</t>
   </si>
   <si>
+    <t>Transcript:
+Have you introduced yourself to the new employee?
+(A) A new reward system will be introduced soon.
+(B) No, I’ve been too busy today.
+(C) Nice to meet you.
+Bản dịch:
+Bạn đã giới thiệu bản thân với nhân viên mới chưa?
+(A) Một hệ thống khen thưởng mới sẽ sớm được giới thiệu.
+(B) Không, hôm nay tôi quá bận.
+(C) Rất vui được gặp bạn.</t>
+  </si>
+  <si>
     <t>cau5.mp3</t>
   </si>
   <si>
-    <t xml:space="preserve">Transcript:
-Which seat is mine?
-(A) It’s a comfortable chair.
-(B) Please sit anywhere.
-(C) Keep that in mind.
-Bản dịch: 
-Chỗ ngồi nào là của tôi?
-(A) Đó là một chiếc ghế thoải mái.
-(B) Hãy ngồi ở bất cứ đâu.
-(C) Hãy ghi nhớ điều đó.
-</t>
-  </si>
-  <si>
     <t>Transcript:
-I couldn’t get a hold of George.
-(A) Hold the line, please.
-(B) Some empty boxes.
-(C) Try calling back later.
-Bản dịch: 
-Tôi không thể liên lạc được với George.
-(A) Làm ơn giữ máy.
-(B) Một số hộp trống.
-(C) Hãy thử gọi lại sau.</t>
-  </si>
-  <si>
-    <t>Transcript:
-Shouldn’t our food have been served by now?
-(A) It was delicious.
-(B) Yes, the service is rather slow tonight.
-(C) I’ll order the tomato pasta.
+Where does this bus go to?
+(A) You need a transit card.
+(B) The bus stop is over there.
+(C) It is headed downtown.
 Bản dịch:
-Lẽ ra bây giờ đồ ăn của chúng ta đã được phục vụ rồi sao?
-(A) Nó rất ngon.
-(B) Vâng, dịch vụ tối nay khá chậm.
-(C) Tôi sẽ gọi mì cà chua.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transcript:
-Why don’t we take a group picture?
-(A) Sure, let’s do it on the steps.
-(B) A digital camera.
-(C) Yes, she looks attractive in this picture.
-Bản dịch: 
-Tại sao chúng ta không chụp ảnh nhóm?
-(A) Chắc chắn rồi, hãy thực hiện theo các bước.
-(B) Một máy ảnh kỹ thuật số.
-(C) Vâng, cô ấy trông thật hấp dẫn trong bức ảnh này.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Transcript:
-This new coffee maker was very expensive.
-(A) He has extensive management experience.
-(B) There’s a paper jam in the copy machine.
-(C) That’s why the coffee tastes great.
-Bản dịch:
-Máy pha cà phê mới này rất đắt tiền.
-(A) Anh ấy có nhiều kinh nghiệm quản lý.
-(B) Có kẹt giấy trong máy photocopy.
-(C) Đó là lý do tại sao cà phê có hương vị tuyệt vời.
-</t>
+Xe buýt này đi đến đâu?
+(A) Bạn cần thẻ chuyển tuyến.
+(B) Trạm xe buýt ở đằng kia.
+(C) Nó hướng về trung tâm thành phố.</t>
   </si>
 </sst>
 </file>
@@ -573,7 +570,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +580,7 @@
     <col min="6" max="6" width="58.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -617,15 +614,15 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -637,15 +634,15 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -657,15 +654,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -677,15 +674,15 @@
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
